--- a/PO/ExcelPO/2.xlsx
+++ b/PO/ExcelPO/2.xlsx
@@ -1,46 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\test\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12384" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1420" yWindow="1620" windowWidth="28800" windowHeight="15160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="1" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +55,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -361,61 +348,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="4" width="0" hidden="1" outlineLevel="1"/>
-    <col min="5" max="5" width="8.88671875" collapsed="1"/>
+    <col hidden="1" outlineLevel="1" width="13" customWidth="1" min="1" max="4"/>
+    <col collapsed="1" width="8.83203125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="11" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="1" hidden="1" outlineLevel="1"/>
+    <row r="2" hidden="1" outlineLevel="1"/>
+    <row r="3" hidden="1" outlineLevel="1">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+    </row>
+    <row r="4" hidden="1" outlineLevel="1"/>
+    <row r="5" hidden="1" outlineLevel="1"/>
+    <row r="6" hidden="1" outlineLevel="1"/>
+    <row r="7" hidden="1" outlineLevel="1"/>
+    <row r="8" hidden="1" outlineLevel="1"/>
+    <row r="9" hidden="1" outlineLevel="1"/>
+    <row r="10" hidden="1" outlineLevel="1"/>
+    <row r="11" collapsed="1">
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>eqweqeqe</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="F17:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="17">
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="D8:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="8">
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>